--- a/prog/data_processing/result/classify_abby/3.xlsx
+++ b/prog/data_processing/result/classify_abby/3.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KFA\university\диплом\diplom_project\prog\data_processing\result\classify_abby\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -211,8 +216,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,24 +269,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,9 +335,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,9 +369,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,9 +404,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,37 +580,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="111" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
       <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
@@ -600,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -659,24 +682,24 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.5723902897379314</v>
+        <v>0.57239028973793138</v>
       </c>
       <c r="C4">
         <v>0.1206575171242146</v>
       </c>
       <c r="D4">
-        <v>2.638115938922102E-17</v>
+        <v>2.6381159389221021E-17</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.1447805794758628</v>
+        <v>0.14478057947586279</v>
       </c>
       <c r="G4">
         <v>229217</v>
@@ -685,25 +708,25 @@
         <v>189124</v>
       </c>
       <c r="I4">
-        <v>82.50871444962634</v>
+        <v>82.508714449626339</v>
       </c>
       <c r="J4">
-        <v>96.97174793621494</v>
+        <v>96.971747936214939</v>
       </c>
       <c r="K4">
-        <v>0.5723902897379314</v>
+        <v>0.57239028973793138</v>
       </c>
       <c r="L4">
         <v>0.1206575171242146</v>
       </c>
       <c r="M4">
-        <v>2.638115938922102E-17</v>
+        <v>2.6381159389221021E-17</v>
       </c>
       <c r="N4">
         <v>-1</v>
       </c>
       <c r="O4">
-        <v>0.1447805794758628</v>
+        <v>0.14478057947586279</v>
       </c>
       <c r="P4">
         <v>7280</v>
@@ -712,36 +735,36 @@
         <v>5906</v>
       </c>
       <c r="R4">
-        <v>81.12637362637362</v>
+        <v>81.126373626373621</v>
       </c>
       <c r="S4">
-        <v>3.028252063785059</v>
+        <v>3.0282520637850592</v>
       </c>
       <c r="T4">
         <v>195030</v>
       </c>
       <c r="U4">
-        <v>82.46616236146758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>82.466162361467582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.5069117041162635</v>
+        <v>0.50691170411626352</v>
       </c>
       <c r="C5">
-        <v>0.01382340823252715</v>
+        <v>1.3823408232527149E-2</v>
       </c>
       <c r="D5">
-        <v>0.1335858889313744</v>
+        <v>0.13358588893137441</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.01382340823252703</v>
+        <v>1.3823408232527029E-2</v>
       </c>
       <c r="G5">
         <v>229217</v>
@@ -756,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5069117041162635</v>
+        <v>0.50691170411626352</v>
       </c>
       <c r="L5">
-        <v>0.01382340823252709</v>
+        <v>1.382340823252709E-2</v>
       </c>
       <c r="M5">
         <v>0.1335858889313771</v>
@@ -768,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0.01382340823252703</v>
+        <v>1.3823408232527029E-2</v>
       </c>
       <c r="P5">
         <v>7280</v>
@@ -789,24 +812,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5013955772966613</v>
+        <v>0.50139557729666129</v>
       </c>
       <c r="C6">
-        <v>0.01497758170708913</v>
+        <v>1.4977581707089131E-2</v>
       </c>
       <c r="D6">
-        <v>0.08351864910672924</v>
+        <v>8.3518649106729237E-2</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.002791154593322576</v>
+        <v>2.7911545933225761E-3</v>
       </c>
       <c r="G6">
         <v>229217</v>
@@ -821,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5013955772966613</v>
+        <v>0.50139557729666129</v>
       </c>
       <c r="L6">
-        <v>0.01497758170708913</v>
+        <v>1.4977581707089131E-2</v>
       </c>
       <c r="M6">
-        <v>0.08351864910672924</v>
+        <v>8.3518649106729237E-2</v>
       </c>
       <c r="N6">
         <v>-1</v>
       </c>
       <c r="O6">
-        <v>0.002791154593322576</v>
+        <v>2.7911545933225761E-3</v>
       </c>
       <c r="P6">
         <v>7280</v>
@@ -854,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -862,16 +885,16 @@
         <v>0.5198542280008478</v>
       </c>
       <c r="C7">
-        <v>0.02875300047984664</v>
+        <v>2.8753000479846639E-2</v>
       </c>
       <c r="D7">
-        <v>1.679065867253956E-05</v>
+        <v>1.6790658672539559E-5</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.03970845600169559</v>
+        <v>3.9708456001695591E-2</v>
       </c>
       <c r="G7">
         <v>229217</v>
@@ -880,25 +903,25 @@
         <v>189124</v>
       </c>
       <c r="I7">
-        <v>82.50871444962634</v>
+        <v>82.508714449626339</v>
       </c>
       <c r="J7">
-        <v>96.97174793621494</v>
+        <v>96.971747936214939</v>
       </c>
       <c r="K7">
         <v>0.5198542280008478</v>
       </c>
       <c r="L7">
-        <v>0.02875300047984666</v>
+        <v>2.875300047984666E-2</v>
       </c>
       <c r="M7">
-        <v>1.679065867253918E-05</v>
+        <v>1.679065867253918E-5</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03970845600169559</v>
+        <v>3.9708456001695591E-2</v>
       </c>
       <c r="P7">
         <v>7280</v>
@@ -907,36 +930,36 @@
         <v>5906</v>
       </c>
       <c r="R7">
-        <v>81.12637362637362</v>
+        <v>81.126373626373621</v>
       </c>
       <c r="S7">
-        <v>3.028252063785059</v>
+        <v>3.0282520637850592</v>
       </c>
       <c r="T7">
         <v>195030</v>
       </c>
       <c r="U7">
-        <v>82.46616236146758</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>82.466162361467582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.6125199517899607</v>
+        <v>0.61251995178996066</v>
       </c>
       <c r="C8">
         <v>0.239128310368416</v>
       </c>
       <c r="D8">
-        <v>0.0002330687792138666</v>
+        <v>2.3306877921386659E-4</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.2250399035799213</v>
+        <v>0.22503990357992129</v>
       </c>
       <c r="G8">
         <v>229217</v>
@@ -945,25 +968,25 @@
         <v>227701</v>
       </c>
       <c r="I8">
-        <v>99.3386179908122</v>
+        <v>99.338617990812196</v>
       </c>
       <c r="J8">
-        <v>96.93529161345253</v>
+        <v>96.935291613452534</v>
       </c>
       <c r="K8">
-        <v>0.6125199517899607</v>
+        <v>0.61251995178996066</v>
       </c>
       <c r="L8">
         <v>0.239128310368416</v>
       </c>
       <c r="M8">
-        <v>0.0002330687792138666</v>
+        <v>2.3306877921386659E-4</v>
       </c>
       <c r="N8">
         <v>-1</v>
       </c>
       <c r="O8">
-        <v>0.2250399035799213</v>
+        <v>0.22503990357992129</v>
       </c>
       <c r="P8">
         <v>7280</v>
@@ -972,27 +995,27 @@
         <v>7199</v>
       </c>
       <c r="R8">
-        <v>98.88736263736264</v>
+        <v>98.887362637362642</v>
       </c>
       <c r="S8">
-        <v>3.064708386547467</v>
+        <v>3.0647083865474669</v>
       </c>
       <c r="T8">
         <v>234900</v>
       </c>
       <c r="U8">
-        <v>99.32472716355809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>99.324727163558094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5022562767672477</v>
+        <v>0.50225627676724771</v>
       </c>
       <c r="C9">
-        <v>0.004512553534495534</v>
+        <v>4.5125535344955336E-3</v>
       </c>
       <c r="D9">
         <v>0.9986590538933835</v>
@@ -1001,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.004512553534495423</v>
+        <v>4.5125535344954226E-3</v>
       </c>
       <c r="G9">
         <v>229217</v>
@@ -1016,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5022562767672478</v>
+        <v>0.50225627676724782</v>
       </c>
       <c r="L9">
-        <v>0.004512553534495625</v>
+        <v>4.5125535344956247E-3</v>
       </c>
       <c r="M9">
-        <v>0.9986590538933831</v>
+        <v>0.99865905389338305</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>0.004512553534495645</v>
+        <v>4.5125535344956447E-3</v>
       </c>
       <c r="P9">
         <v>7280</v>
@@ -1049,24 +1072,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.5016454592766286</v>
+        <v>0.50164545927662862</v>
       </c>
       <c r="C10">
-        <v>0.003943779556844905</v>
+        <v>3.9437795568449049E-3</v>
       </c>
       <c r="D10">
-        <v>0.9998874541869984</v>
+        <v>0.99988745418699843</v>
       </c>
       <c r="E10">
         <v>-1</v>
       </c>
       <c r="F10">
-        <v>0.003290918553257249</v>
+        <v>3.2909185532572489E-3</v>
       </c>
       <c r="G10">
         <v>229217</v>
@@ -1081,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5016454592766285</v>
+        <v>0.50164545927662851</v>
       </c>
       <c r="L10">
-        <v>0.003943779556844905</v>
+        <v>3.9437795568449049E-3</v>
       </c>
       <c r="M10">
-        <v>0.9998874541869984</v>
+        <v>0.99988745418699843</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>0.003290918553257027</v>
+        <v>3.2909185532570269E-3</v>
       </c>
       <c r="P10">
         <v>7280</v>
@@ -1114,15 +1137,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.5022650509639912</v>
+        <v>0.50226505096399121</v>
       </c>
       <c r="C11">
-        <v>0.004512553534495534</v>
+        <v>4.5125535344955336E-3</v>
       </c>
       <c r="D11">
         <v>0.9986590538933835</v>
@@ -1131,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.004530101927982422</v>
+        <v>4.5301019279824217E-3</v>
       </c>
       <c r="G11">
         <v>229217</v>
@@ -1140,25 +1163,25 @@
         <v>227701</v>
       </c>
       <c r="I11">
-        <v>99.3386179908122</v>
+        <v>99.338617990812196</v>
       </c>
       <c r="J11">
-        <v>96.93529161345253</v>
+        <v>96.935291613452534</v>
       </c>
       <c r="K11">
-        <v>0.5022650509639912</v>
+        <v>0.50226505096399121</v>
       </c>
       <c r="L11">
-        <v>0.004512553534495625</v>
+        <v>4.5125535344956247E-3</v>
       </c>
       <c r="M11">
-        <v>0.9986590538933831</v>
+        <v>0.99865905389338305</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0.004530101927982422</v>
+        <v>4.5301019279824217E-3</v>
       </c>
       <c r="P11">
         <v>7280</v>
@@ -1167,36 +1190,36 @@
         <v>7199</v>
       </c>
       <c r="R11">
-        <v>98.88736263736264</v>
+        <v>98.887362637362642</v>
       </c>
       <c r="S11">
-        <v>3.064708386547467</v>
+        <v>3.0647083865474669</v>
       </c>
       <c r="T11">
         <v>234900</v>
       </c>
       <c r="U11">
-        <v>99.32472716355809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>99.324727163558094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.7681159420289855</v>
+        <v>0.76811594202898548</v>
       </c>
       <c r="C12">
-        <v>0.5301932367149758</v>
+        <v>0.53019323671497576</v>
       </c>
       <c r="D12">
-        <v>0.01264756999253388</v>
+        <v>1.2647569992533881E-2</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.536231884057971</v>
+        <v>0.53623188405797095</v>
       </c>
       <c r="G12">
         <v>229217</v>
@@ -1205,25 +1228,25 @@
         <v>229125</v>
       </c>
       <c r="I12">
-        <v>99.95986336092</v>
+        <v>99.959863360919996</v>
       </c>
       <c r="J12">
-        <v>96.92422883635933</v>
+        <v>96.924228836359333</v>
       </c>
       <c r="K12">
-        <v>0.7681159420289855</v>
+        <v>0.76811594202898548</v>
       </c>
       <c r="L12">
-        <v>0.5301932367149758</v>
+        <v>0.53019323671497576</v>
       </c>
       <c r="M12">
-        <v>0.01264756999253388</v>
+        <v>1.2647569992533881E-2</v>
       </c>
       <c r="N12">
         <v>-1</v>
       </c>
       <c r="O12">
-        <v>0.536231884057971</v>
+        <v>0.53623188405797095</v>
       </c>
       <c r="P12">
         <v>7280</v>
@@ -1232,27 +1255,27 @@
         <v>7271</v>
       </c>
       <c r="R12">
-        <v>99.87637362637362</v>
+        <v>99.876373626373621</v>
       </c>
       <c r="S12">
-        <v>3.075771163640671</v>
+        <v>3.0757711636406708</v>
       </c>
       <c r="T12">
         <v>236396</v>
       </c>
       <c r="U12">
-        <v>99.95729332718808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>99.957293327188083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.5004174486727319</v>
+        <v>0.50041744867273186</v>
       </c>
       <c r="C13">
-        <v>0.0008348973454637143</v>
+        <v>8.348973454637143E-4</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1261,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.0008348973454637143</v>
+        <v>8.348973454637143E-4</v>
       </c>
       <c r="G13">
         <v>229217</v>
@@ -1276,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5004174486727319</v>
+        <v>0.50041744867273186</v>
       </c>
       <c r="L13">
-        <v>0.0008348973454637519</v>
+        <v>8.3489734546375192E-4</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1288,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>0.0008348973454637143</v>
+        <v>8.348973454637143E-4</v>
       </c>
       <c r="P13">
         <v>7280</v>
@@ -1309,15 +1332,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.5000533232533095</v>
+        <v>0.50005332325330953</v>
       </c>
       <c r="C14">
-        <v>0.0004751615713062726</v>
+        <v>4.7516157130627262E-4</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1326,7 +1349,7 @@
         <v>-1</v>
       </c>
       <c r="F14">
-        <v>0.000106646506619068</v>
+        <v>1.0664650661906799E-4</v>
       </c>
       <c r="G14">
         <v>229217</v>
@@ -1341,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5000533232533094</v>
+        <v>0.50005332325330942</v>
       </c>
       <c r="L14">
-        <v>0.0004751615713062726</v>
+        <v>4.7516157130627262E-4</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1353,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.000106646506618846</v>
+        <v>1.06646506618846E-4</v>
       </c>
       <c r="P14">
         <v>7280</v>
@@ -1374,15 +1397,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.5005329925258694</v>
+        <v>0.50053299252586936</v>
       </c>
       <c r="C15">
-        <v>0.0009505700414315088</v>
+        <v>9.5057004143150881E-4</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1391,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.001065985051738716</v>
+        <v>1.0659850517387159E-3</v>
       </c>
       <c r="G15">
         <v>229217</v>
@@ -1400,16 +1423,16 @@
         <v>229125</v>
       </c>
       <c r="I15">
-        <v>99.95986336092</v>
+        <v>99.959863360919996</v>
       </c>
       <c r="J15">
-        <v>96.92422883635933</v>
+        <v>96.924228836359333</v>
       </c>
       <c r="K15">
-        <v>0.5005329925258694</v>
+        <v>0.50053299252586936</v>
       </c>
       <c r="L15">
-        <v>0.0009505700414315395</v>
+        <v>9.5057004143153949E-4</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1418,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>0.001065985051738716</v>
+        <v>1.0659850517387159E-3</v>
       </c>
       <c r="P15">
         <v>7280</v>
@@ -1427,36 +1450,36 @@
         <v>7271</v>
       </c>
       <c r="R15">
-        <v>99.87637362637362</v>
+        <v>99.876373626373621</v>
       </c>
       <c r="S15">
-        <v>3.075771163640671</v>
+        <v>3.0757711636406708</v>
       </c>
       <c r="T15">
         <v>236396</v>
       </c>
       <c r="U15">
-        <v>99.95729332718808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>99.957293327188083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.5589259965083949</v>
+        <v>0.55892599650839492</v>
       </c>
       <c r="C16">
-        <v>0.0719918897960915</v>
+        <v>7.1991889796091502E-2</v>
       </c>
       <c r="D16">
-        <v>1.184732334380948E-17</v>
+        <v>1.1847323343809481E-17</v>
       </c>
       <c r="E16">
         <v>-1</v>
       </c>
       <c r="F16">
-        <v>0.1178519930167898</v>
+        <v>0.11785199301678979</v>
       </c>
       <c r="G16">
         <v>229217</v>
@@ -1465,25 +1488,25 @@
         <v>142352</v>
       </c>
       <c r="I16">
-        <v>62.103596155608</v>
+        <v>62.103596155608003</v>
       </c>
       <c r="J16">
-        <v>97.74304959523205</v>
+        <v>97.743049595232051</v>
       </c>
       <c r="K16">
-        <v>0.5589259965083949</v>
+        <v>0.55892599650839492</v>
       </c>
       <c r="L16">
-        <v>0.0719918897960915</v>
+        <v>7.1991889796091502E-2</v>
       </c>
       <c r="M16">
-        <v>1.184732334380948E-17</v>
+        <v>1.1847323343809481E-17</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>0.1178519930167898</v>
+        <v>0.11785199301678979</v>
       </c>
       <c r="P16">
         <v>7280</v>
@@ -1492,36 +1515,36 @@
         <v>3287</v>
       </c>
       <c r="R16">
-        <v>45.1510989010989</v>
+        <v>45.151098901098898</v>
       </c>
       <c r="S16">
-        <v>2.256950404767954</v>
+        <v>2.2569504047679541</v>
       </c>
       <c r="T16">
         <v>145639</v>
       </c>
       <c r="U16">
-        <v>61.5817536797507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>61.581753679750697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.5847624862725456</v>
+        <v>0.58476248627254557</v>
       </c>
       <c r="C17">
-        <v>0.1695249725450911</v>
+        <v>0.16952497254509111</v>
       </c>
       <c r="D17">
-        <v>9.591633557383529E-178</v>
+        <v>9.5916335573835287E-178</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.1695249725450911</v>
+        <v>0.16952497254509111</v>
       </c>
       <c r="G17">
         <v>229217</v>
@@ -1536,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5847624862725456</v>
+        <v>0.58476248627254557</v>
       </c>
       <c r="L17">
-        <v>0.1695249725450911</v>
+        <v>0.16952497254509111</v>
       </c>
       <c r="M17">
-        <v>9.591633557383529E-178</v>
+        <v>9.5916335573835287E-178</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>0.1695249725450911</v>
+        <v>0.16952497254509111</v>
       </c>
       <c r="P17">
         <v>7280</v>
@@ -1569,24 +1592,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.5982977581898855</v>
+        <v>0.59829775818988551</v>
       </c>
       <c r="C18">
-        <v>0.1841484414188446</v>
+        <v>0.18414844141884459</v>
       </c>
       <c r="D18">
-        <v>6.734450486047741E-210</v>
+        <v>6.7344504860477406E-210</v>
       </c>
       <c r="E18">
         <v>-1</v>
       </c>
       <c r="F18">
-        <v>0.196595516379771</v>
+        <v>0.19659551637977099</v>
       </c>
       <c r="G18">
         <v>229217</v>
@@ -1601,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5982977581898856</v>
+        <v>0.59829775818988562</v>
       </c>
       <c r="L18">
-        <v>0.1841484414188446</v>
+        <v>0.18414844141884459</v>
       </c>
       <c r="M18">
-        <v>6.734450486047741E-210</v>
+        <v>6.7344504860477406E-210</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18">
-        <v>0.1965955163797712</v>
+        <v>0.19659551637977121</v>
       </c>
       <c r="P18">
         <v>7280</v>
@@ -1634,24 +1657,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.592127769587502</v>
+        <v>0.59212776958750202</v>
       </c>
       <c r="C19">
-        <v>0.1695249725450911</v>
+        <v>0.16952497254509111</v>
       </c>
       <c r="D19">
-        <v>9.591633557383529E-178</v>
+        <v>9.5916335573835287E-178</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.184255539175004</v>
+        <v>0.18425553917500401</v>
       </c>
       <c r="G19">
         <v>229217</v>
@@ -1660,25 +1683,25 @@
         <v>142352</v>
       </c>
       <c r="I19">
-        <v>62.103596155608</v>
+        <v>62.103596155608003</v>
       </c>
       <c r="J19">
-        <v>97.74304959523205</v>
+        <v>97.743049595232051</v>
       </c>
       <c r="K19">
-        <v>0.5921277695875021</v>
+        <v>0.59212776958750213</v>
       </c>
       <c r="L19">
-        <v>0.1695249725450911</v>
+        <v>0.16952497254509111</v>
       </c>
       <c r="M19">
-        <v>9.591633557383529E-178</v>
+        <v>9.5916335573835287E-178</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>0.1842555391750043</v>
+        <v>0.18425553917500431</v>
       </c>
       <c r="P19">
         <v>7280</v>
@@ -1687,24 +1710,24 @@
         <v>3287</v>
       </c>
       <c r="R19">
-        <v>45.1510989010989</v>
+        <v>45.151098901098898</v>
       </c>
       <c r="S19">
-        <v>2.256950404767954</v>
+        <v>2.2569504047679541</v>
       </c>
       <c r="T19">
         <v>145639</v>
       </c>
       <c r="U19">
-        <v>61.5817536797507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>61.581753679750697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.5698709504108156</v>
+        <v>0.56987095041081559</v>
       </c>
       <c r="C20">
         <v>0.1091872493096122</v>
@@ -1716,7 +1739,7 @@
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>0.1397419008216312</v>
+        <v>0.13974190082163121</v>
       </c>
       <c r="G20">
         <v>229217</v>
@@ -1725,13 +1748,13 @@
         <v>129701</v>
       </c>
       <c r="I20">
-        <v>56.58437201429214</v>
+        <v>56.584372014292143</v>
       </c>
       <c r="J20">
-        <v>97.98886395745035</v>
+        <v>97.988863957450349</v>
       </c>
       <c r="K20">
-        <v>0.5698709504108155</v>
+        <v>0.56987095041081548</v>
       </c>
       <c r="L20">
         <v>0.1091872493096122</v>
@@ -1743,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>0.139741900821631</v>
+        <v>0.13974190082163099</v>
       </c>
       <c r="P20">
         <v>7280</v>
@@ -1752,27 +1775,27 @@
         <v>2662</v>
       </c>
       <c r="R20">
-        <v>36.56593406593407</v>
+        <v>36.565934065934073</v>
       </c>
       <c r="S20">
-        <v>2.011136042549655</v>
+        <v>2.0111360425496549</v>
       </c>
       <c r="T20">
         <v>132363</v>
       </c>
       <c r="U20">
-        <v>55.96815181587927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>55.968151815879267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.6000921897417903</v>
+        <v>0.60009218974179035</v>
       </c>
       <c r="C21">
-        <v>0.2001843794835808</v>
+        <v>0.20018437948358081</v>
       </c>
       <c r="D21">
         <v>2.583601822794982E-248</v>
@@ -1796,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6000921897417903</v>
+        <v>0.60009218974179035</v>
       </c>
       <c r="L21">
-        <v>0.2001843794835806</v>
+        <v>0.20018437948358059</v>
       </c>
       <c r="M21">
         <v>2.583601822796633E-248</v>
@@ -1829,24 +1852,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.5802608903713152</v>
+        <v>0.58026089037131523</v>
       </c>
       <c r="C22">
-        <v>0.1495017234256689</v>
+        <v>0.14950172342566889</v>
       </c>
       <c r="D22">
-        <v>3.896187874717287E-138</v>
+        <v>3.8961878747172868E-138</v>
       </c>
       <c r="E22">
         <v>-1</v>
       </c>
       <c r="F22">
-        <v>0.1605217807426305</v>
+        <v>0.16052178074263049</v>
       </c>
       <c r="G22">
         <v>229217</v>
@@ -1861,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5802608903713152</v>
+        <v>0.58026089037131523</v>
       </c>
       <c r="L22">
-        <v>0.1495017234256689</v>
+        <v>0.14950172342566889</v>
       </c>
       <c r="M22">
-        <v>3.896187874717287E-138</v>
+        <v>3.8961878747172868E-138</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22">
-        <v>0.1605217807426305</v>
+        <v>0.16052178074263049</v>
       </c>
       <c r="P22">
         <v>7280</v>
@@ -1894,15 +1917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.6124192706781477</v>
+        <v>0.61241927067814772</v>
       </c>
       <c r="C23">
-        <v>0.2001843794835808</v>
+        <v>0.20018437948358081</v>
       </c>
       <c r="D23">
         <v>2.583601822794982E-248</v>
@@ -1911,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.2248385413562954</v>
+        <v>0.22483854135629541</v>
       </c>
       <c r="G23">
         <v>229217</v>
@@ -1920,16 +1943,16 @@
         <v>129701</v>
       </c>
       <c r="I23">
-        <v>56.58437201429214</v>
+        <v>56.584372014292143</v>
       </c>
       <c r="J23">
-        <v>97.98886395745035</v>
+        <v>97.988863957450349</v>
       </c>
       <c r="K23">
-        <v>0.6124192706781477</v>
+        <v>0.61241927067814772</v>
       </c>
       <c r="L23">
-        <v>0.2001843794835806</v>
+        <v>0.20018437948358059</v>
       </c>
       <c r="M23">
         <v>2.583601822796633E-248</v>
@@ -1938,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>0.2248385413562954</v>
+        <v>0.22483854135629541</v>
       </c>
       <c r="P23">
         <v>7280</v>
@@ -1947,36 +1970,36 @@
         <v>2662</v>
       </c>
       <c r="R23">
-        <v>36.56593406593407</v>
+        <v>36.565934065934073</v>
       </c>
       <c r="S23">
-        <v>2.011136042549655</v>
+        <v>2.0111360425496549</v>
       </c>
       <c r="T23">
         <v>132363</v>
       </c>
       <c r="U23">
-        <v>55.96815181587927</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>55.968151815879267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.5524087195652165</v>
+        <v>0.55240871956521653</v>
       </c>
       <c r="C24">
-        <v>0.1056752766692007</v>
+        <v>0.10567527666920069</v>
       </c>
       <c r="D24">
-        <v>0.003391140337974593</v>
+        <v>3.3911403379745931E-3</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.1048174391304331</v>
+        <v>0.10481743913043309</v>
       </c>
       <c r="G24">
         <v>229217</v>
@@ -1985,25 +2008,25 @@
         <v>220416</v>
       </c>
       <c r="I24">
-        <v>96.16040695061885</v>
+        <v>96.160406950618849</v>
       </c>
       <c r="J24">
-        <v>96.92662870209539</v>
+        <v>96.926628702095385</v>
       </c>
       <c r="K24">
-        <v>0.5524087195652165</v>
+        <v>0.55240871956521653</v>
       </c>
       <c r="L24">
-        <v>0.1056752766692007</v>
+        <v>0.10567527666920069</v>
       </c>
       <c r="M24">
-        <v>0.003391140337974593</v>
+        <v>3.3911403379745931E-3</v>
       </c>
       <c r="N24">
         <v>-1</v>
       </c>
       <c r="O24">
-        <v>0.1048174391304331</v>
+        <v>0.10481743913043309</v>
       </c>
       <c r="P24">
         <v>7280</v>
@@ -2012,7 +2035,7 @@
         <v>6989</v>
       </c>
       <c r="R24">
-        <v>96.00274725274726</v>
+        <v>96.002747252747255</v>
       </c>
       <c r="S24">
         <v>3.073371297904619</v>
@@ -2024,15 +2047,15 @@
         <v>96.1555537702381</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.500788298489358</v>
+        <v>0.50078829848935802</v>
       </c>
       <c r="C25">
-        <v>0.001576596978715927</v>
+        <v>1.5765969787159271E-3</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2041,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.001576596978716038</v>
+        <v>1.5765969787160381E-3</v>
       </c>
       <c r="G25">
         <v>229217</v>
@@ -2056,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.500788298489358</v>
+        <v>0.50078829848935802</v>
       </c>
       <c r="L25">
-        <v>0.001576596978715927</v>
+        <v>1.5765969787159271E-3</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2068,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>0.001576596978716038</v>
+        <v>1.5765969787160381E-3</v>
       </c>
       <c r="P25">
         <v>7280</v>
@@ -2089,24 +2112,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.5007078625096704</v>
+        <v>0.50070786250967037</v>
       </c>
       <c r="C26">
-        <v>0.004014157705637832</v>
+        <v>4.014157705637832E-3</v>
       </c>
       <c r="D26">
-        <v>0.9998376497779566</v>
+        <v>0.99983764977795664</v>
       </c>
       <c r="E26">
         <v>-1</v>
       </c>
       <c r="F26">
-        <v>0.00141572501934073</v>
+        <v>1.41572501934073E-3</v>
       </c>
       <c r="G26">
         <v>229217</v>
@@ -2121,19 +2144,19 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.5007078625096706</v>
+        <v>0.50070786250967059</v>
       </c>
       <c r="L26">
-        <v>0.004014157705637832</v>
+        <v>4.014157705637832E-3</v>
       </c>
       <c r="M26">
-        <v>0.9998376497779566</v>
+        <v>0.99983764977795664</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26">
-        <v>0.001415725019341174</v>
+        <v>1.4157250193411739E-3</v>
       </c>
       <c r="P26">
         <v>7280</v>
@@ -2154,24 +2177,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.5017073364953322</v>
+        <v>0.50170733649533217</v>
       </c>
       <c r="C27">
-        <v>0.00251481968212186</v>
+        <v>2.51481968212186E-3</v>
       </c>
       <c r="D27">
-        <v>0.9999999999808966</v>
+        <v>0.99999999998089661</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0.003414672990664336</v>
+        <v>3.4146729906643358E-3</v>
       </c>
       <c r="G27">
         <v>229217</v>
@@ -2180,25 +2203,25 @@
         <v>220416</v>
       </c>
       <c r="I27">
-        <v>96.16040695061885</v>
+        <v>96.160406950618849</v>
       </c>
       <c r="J27">
-        <v>96.92662870209539</v>
+        <v>96.926628702095385</v>
       </c>
       <c r="K27">
-        <v>0.5017073364953322</v>
+        <v>0.50170733649533217</v>
       </c>
       <c r="L27">
-        <v>0.002514819682121847</v>
+        <v>2.514819682121847E-3</v>
       </c>
       <c r="M27">
-        <v>0.9999999999808966</v>
+        <v>0.99999999998089661</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>0.003414672990664336</v>
+        <v>3.4146729906643358E-3</v>
       </c>
       <c r="P27">
         <v>7280</v>
@@ -2207,7 +2230,7 @@
         <v>6989</v>
       </c>
       <c r="R27">
-        <v>96.00274725274726</v>
+        <v>96.002747252747255</v>
       </c>
       <c r="S27">
         <v>3.073371297904619</v>
@@ -2219,24 +2242,24 @@
         <v>96.1555537702381</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.6502431653144738</v>
+        <v>0.65024316531447379</v>
       </c>
       <c r="C28">
-        <v>0.2418626216610067</v>
+        <v>0.24186262166100669</v>
       </c>
       <c r="D28">
-        <v>4.453587059926572E-133</v>
+        <v>4.4535870599265721E-133</v>
       </c>
       <c r="E28">
         <v>-1</v>
       </c>
       <c r="F28">
-        <v>0.3004863306289476</v>
+        <v>0.30048633062894758</v>
       </c>
       <c r="G28">
         <v>229217</v>
@@ -2245,25 +2268,25 @@
         <v>164115</v>
       </c>
       <c r="I28">
-        <v>71.59809263710807</v>
+        <v>71.598092637108067</v>
       </c>
       <c r="J28">
-        <v>97.2740851381628</v>
+        <v>97.274085138162803</v>
       </c>
       <c r="K28">
-        <v>0.6502431653144738</v>
+        <v>0.65024316531447379</v>
       </c>
       <c r="L28">
-        <v>0.2418626216610067</v>
+        <v>0.24186262166100669</v>
       </c>
       <c r="M28">
-        <v>4.453587059926572E-133</v>
+        <v>4.4535870599265721E-133</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>0.3004863306289476</v>
+        <v>0.30048633062894758</v>
       </c>
       <c r="P28">
         <v>7280</v>
@@ -2275,33 +2298,33 @@
         <v>63.17307692307692</v>
       </c>
       <c r="S28">
-        <v>2.725914861837192</v>
+        <v>2.7259148618371918</v>
       </c>
       <c r="T28">
         <v>168714</v>
       </c>
       <c r="U28">
-        <v>71.33874848306743</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>71.338748483067434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.5421250785701558</v>
+        <v>0.54212507857015579</v>
       </c>
       <c r="C29">
-        <v>0.08425015714031148</v>
+        <v>8.4250157140311477E-2</v>
       </c>
       <c r="D29">
-        <v>5.088240943027073E-44</v>
+        <v>5.0882409430270728E-44</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0.08425015714031159</v>
+        <v>8.4250157140311588E-2</v>
       </c>
       <c r="G29">
         <v>229217</v>
@@ -2316,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0.5421250785701558</v>
+        <v>0.54212507857015579</v>
       </c>
       <c r="L29">
-        <v>0.08425015714031148</v>
+        <v>8.4250157140311477E-2</v>
       </c>
       <c r="M29">
-        <v>5.088240943027073E-44</v>
+        <v>5.0882409430270728E-44</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>0.08425015714031159</v>
+        <v>8.4250157140311588E-2</v>
       </c>
       <c r="P29">
         <v>7280</v>
@@ -2349,12 +2372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.5652820253297093</v>
+        <v>0.56528202532970928</v>
       </c>
       <c r="C30">
         <v>0.11957051099474</v>
@@ -2366,7 +2389,7 @@
         <v>-1</v>
       </c>
       <c r="F30">
-        <v>0.1305640506594186</v>
+        <v>0.13056405065941859</v>
       </c>
       <c r="G30">
         <v>229217</v>
@@ -2381,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0.5652820253297094</v>
+        <v>0.56528202532970939</v>
       </c>
       <c r="L30">
         <v>0.11957051099474</v>
@@ -2393,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>0.1305640506594188</v>
+        <v>0.13056405065941881</v>
       </c>
       <c r="P30">
         <v>7280</v>
@@ -2414,18 +2437,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.5550371700778576</v>
+        <v>0.55503717007785758</v>
       </c>
       <c r="C31">
-        <v>0.1095730810196797</v>
+        <v>0.10957308101967971</v>
       </c>
       <c r="D31">
-        <v>3.093099528628558E-74</v>
+        <v>3.0930995286285581E-74</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2440,25 +2463,25 @@
         <v>164115</v>
       </c>
       <c r="I31">
-        <v>71.59809263710807</v>
+        <v>71.598092637108067</v>
       </c>
       <c r="J31">
-        <v>97.2740851381628</v>
+        <v>97.274085138162803</v>
       </c>
       <c r="K31">
-        <v>0.5550371700778575</v>
+        <v>0.55503717007785747</v>
       </c>
       <c r="L31">
-        <v>0.1095730810196797</v>
+        <v>0.10957308101967971</v>
       </c>
       <c r="M31">
-        <v>3.093099528628558E-74</v>
+        <v>3.0930995286285581E-74</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
       <c r="O31">
-        <v>0.1100743401557149</v>
+        <v>0.11007434015571491</v>
       </c>
       <c r="P31">
         <v>7280</v>
@@ -2470,16 +2493,16 @@
         <v>63.17307692307692</v>
       </c>
       <c r="S31">
-        <v>2.725914861837192</v>
+        <v>2.7259148618371918</v>
       </c>
       <c r="T31">
         <v>168714</v>
       </c>
       <c r="U31">
-        <v>71.33874848306743</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>71.338748483067434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -2487,16 +2510,16 @@
         <v>0.6517795443085902</v>
       </c>
       <c r="C32">
-        <v>0.2569730431620963</v>
+        <v>0.25697304316209629</v>
       </c>
       <c r="D32">
-        <v>1.170043109876067E-139</v>
+        <v>1.1700431098760669E-139</v>
       </c>
       <c r="E32">
         <v>-1</v>
       </c>
       <c r="F32">
-        <v>0.3035590886171804</v>
+        <v>0.30355908861718039</v>
       </c>
       <c r="G32">
         <v>229217</v>
@@ -2505,25 +2528,25 @@
         <v>168718</v>
       </c>
       <c r="I32">
-        <v>73.60623339455626</v>
+        <v>73.606233394556256</v>
       </c>
       <c r="J32">
         <v>97.23819952740476</v>
       </c>
       <c r="K32">
-        <v>0.6517795443085903</v>
+        <v>0.65177954430859031</v>
       </c>
       <c r="L32">
-        <v>0.2569730431620963</v>
+        <v>0.25697304316209629</v>
       </c>
       <c r="M32">
-        <v>1.170043109876067E-139</v>
+        <v>1.1700431098760669E-139</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
       <c r="O32">
-        <v>0.3035590886171806</v>
+        <v>0.30355908861718062</v>
       </c>
       <c r="P32">
         <v>7280</v>
@@ -2532,7 +2555,7 @@
         <v>4792</v>
       </c>
       <c r="R32">
-        <v>65.82417582417582</v>
+        <v>65.824175824175825</v>
       </c>
       <c r="S32">
         <v>2.761800472595239</v>
@@ -2541,18 +2564,18 @@
         <v>173510</v>
       </c>
       <c r="U32">
-        <v>73.3666811841165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>73.366681184116501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.5389102878519021</v>
+        <v>0.53891028785190209</v>
       </c>
       <c r="C33">
-        <v>0.0778205757038043</v>
+        <v>7.7820575703804296E-2</v>
       </c>
       <c r="D33">
         <v>1.298570329007267E-37</v>
@@ -2561,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0.07782057570380418</v>
+        <v>7.7820575703804185E-2</v>
       </c>
       <c r="G33">
         <v>229217</v>
@@ -2579,16 +2602,16 @@
         <v>0.5389102878519022</v>
       </c>
       <c r="L33">
-        <v>0.07782057570380424</v>
+        <v>7.782057570380424E-2</v>
       </c>
       <c r="M33">
-        <v>1.298570329007426E-37</v>
+        <v>1.2985703290074259E-37</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33">
-        <v>0.07782057570380441</v>
+        <v>7.7820575703804407E-2</v>
       </c>
       <c r="P33">
         <v>7280</v>
@@ -2609,24 +2632,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.5659090887026915</v>
+        <v>0.56590908870269152</v>
       </c>
       <c r="C34">
         <v>0.125952722615601</v>
       </c>
       <c r="D34">
-        <v>4.949117737996993E-98</v>
+        <v>4.9491177379969928E-98</v>
       </c>
       <c r="E34">
         <v>-1</v>
       </c>
       <c r="F34">
-        <v>0.131818177405383</v>
+        <v>0.13181817740538301</v>
       </c>
       <c r="G34">
         <v>229217</v>
@@ -2641,19 +2664,19 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0.5659090887026915</v>
+        <v>0.56590908870269152</v>
       </c>
       <c r="L34">
         <v>0.125952722615601</v>
       </c>
       <c r="M34">
-        <v>4.949117737996993E-98</v>
+        <v>4.9491177379969928E-98</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="O34">
-        <v>0.131818177405383</v>
+        <v>0.13181817740538301</v>
       </c>
       <c r="P34">
         <v>7280</v>
@@ -2674,15 +2697,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.5391183016050772</v>
+        <v>0.53911830160507723</v>
       </c>
       <c r="C35">
-        <v>0.0778205757038043</v>
+        <v>7.7820575703804296E-2</v>
       </c>
       <c r="D35">
         <v>1.298570329007267E-37</v>
@@ -2691,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0.07823660321015447</v>
+        <v>7.8236603210154465E-2</v>
       </c>
       <c r="G35">
         <v>229217</v>
@@ -2700,25 +2723,25 @@
         <v>168718</v>
       </c>
       <c r="I35">
-        <v>73.60623339455626</v>
+        <v>73.606233394556256</v>
       </c>
       <c r="J35">
         <v>97.23819952740476</v>
       </c>
       <c r="K35">
-        <v>0.5391183016050773</v>
+        <v>0.53911830160507734</v>
       </c>
       <c r="L35">
-        <v>0.07782057570380424</v>
+        <v>7.782057570380424E-2</v>
       </c>
       <c r="M35">
-        <v>1.298570329007426E-37</v>
+        <v>1.2985703290074259E-37</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="O35">
-        <v>0.07823660321015469</v>
+        <v>7.8236603210154687E-2</v>
       </c>
       <c r="P35">
         <v>7280</v>
@@ -2727,7 +2750,7 @@
         <v>4792</v>
       </c>
       <c r="R35">
-        <v>65.82417582417582</v>
+        <v>65.824175824175825</v>
       </c>
       <c r="S35">
         <v>2.761800472595239</v>
@@ -2736,18 +2759,18 @@
         <v>173510</v>
       </c>
       <c r="U35">
-        <v>73.3666811841165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>73.366681184116501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.5387034839502006</v>
+        <v>0.53870348395020062</v>
       </c>
       <c r="C36">
-        <v>0.08283506653273798</v>
+        <v>8.2835066532737978E-2</v>
       </c>
       <c r="D36">
         <v>1.193706784914177E-25</v>
@@ -2756,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0.07740696790040125</v>
+        <v>7.7406967900401247E-2</v>
       </c>
       <c r="G36">
         <v>229217</v>
@@ -2765,16 +2788,16 @@
         <v>132664</v>
       </c>
       <c r="I36">
-        <v>57.87703355335773</v>
+        <v>57.877033553357727</v>
       </c>
       <c r="J36">
-        <v>97.88606128577648</v>
+        <v>97.886061285776478</v>
       </c>
       <c r="K36">
-        <v>0.5387034839502006</v>
+        <v>0.53870348395020062</v>
       </c>
       <c r="L36">
-        <v>0.08283506653273798</v>
+        <v>8.2835066532737978E-2</v>
       </c>
       <c r="M36">
         <v>1.193706784914177E-25</v>
@@ -2783,7 +2806,7 @@
         <v>-1</v>
       </c>
       <c r="O36">
-        <v>0.07740696790040125</v>
+        <v>7.7406967900401247E-2</v>
       </c>
       <c r="P36">
         <v>7280</v>
@@ -2792,7 +2815,7 @@
         <v>2865</v>
       </c>
       <c r="R36">
-        <v>39.35439560439561</v>
+        <v>39.354395604395613</v>
       </c>
       <c r="S36">
         <v>2.113938714223524</v>
@@ -2804,7 +2827,7 @@
         <v>57.30685801511224</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -2812,7 +2835,7 @@
         <v>0.5926131897448107</v>
       </c>
       <c r="C37">
-        <v>0.1852263794896213</v>
+        <v>0.18522637948962131</v>
       </c>
       <c r="D37">
         <v>2.237562738588415E-212</v>
@@ -2836,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0.5926131897448106</v>
+        <v>0.59261318974481059</v>
       </c>
       <c r="L37">
-        <v>0.1852263794896213</v>
+        <v>0.18522637948962131</v>
       </c>
       <c r="M37">
         <v>2.237562738589074E-212</v>
@@ -2869,24 +2892,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.580411629890808</v>
+        <v>0.58041162989080797</v>
       </c>
       <c r="C38">
         <v>0.1824864102575289</v>
       </c>
       <c r="D38">
-        <v>4.174644484002183E-206</v>
+        <v>4.1746444840021828E-206</v>
       </c>
       <c r="E38">
         <v>-1</v>
       </c>
       <c r="F38">
-        <v>0.1608232597816159</v>
+        <v>0.16082325978161591</v>
       </c>
       <c r="G38">
         <v>229217</v>
@@ -2901,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0.580411629890808</v>
+        <v>0.58041162989080797</v>
       </c>
       <c r="L38">
         <v>0.1824864102575289</v>
       </c>
       <c r="M38">
-        <v>4.174644484002183E-206</v>
+        <v>4.1746444840021828E-206</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
       <c r="O38">
-        <v>0.1608232597816159</v>
+        <v>0.16082325978161591</v>
       </c>
       <c r="P38">
         <v>7280</v>
@@ -2934,15 +2957,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.603185662650302</v>
+        <v>0.60318566265030205</v>
       </c>
       <c r="C39">
-        <v>0.1852263794896213</v>
+        <v>0.18522637948962131</v>
       </c>
       <c r="D39">
         <v>2.237562738588415E-212</v>
@@ -2951,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0.2063713253006041</v>
+        <v>0.20637132530060409</v>
       </c>
       <c r="G39">
         <v>229217</v>
@@ -2960,16 +2983,16 @@
         <v>132664</v>
       </c>
       <c r="I39">
-        <v>57.87703355335773</v>
+        <v>57.877033553357727</v>
       </c>
       <c r="J39">
-        <v>97.88606128577648</v>
+        <v>97.886061285776478</v>
       </c>
       <c r="K39">
-        <v>0.603185662650302</v>
+        <v>0.60318566265030205</v>
       </c>
       <c r="L39">
-        <v>0.1852263794896213</v>
+        <v>0.18522637948962131</v>
       </c>
       <c r="M39">
         <v>2.237562738589074E-212</v>
@@ -2978,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <v>0.2063713253006041</v>
+        <v>0.20637132530060409</v>
       </c>
       <c r="P39">
         <v>7280</v>
@@ -2987,7 +3010,7 @@
         <v>2865</v>
       </c>
       <c r="R39">
-        <v>39.35439560439561</v>
+        <v>39.354395604395613</v>
       </c>
       <c r="S39">
         <v>2.113938714223524</v>
@@ -2999,24 +3022,24 @@
         <v>57.30685801511224</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.5374636632834116</v>
+        <v>0.53746366328341155</v>
       </c>
       <c r="C40">
-        <v>0.07410062296988479</v>
+        <v>7.4100622969884788E-2</v>
       </c>
       <c r="D40">
-        <v>7.7378610635856E-20</v>
+        <v>7.7378610635855996E-20</v>
       </c>
       <c r="E40">
         <v>-1</v>
       </c>
       <c r="F40">
-        <v>0.0749273265668231</v>
+        <v>7.4927326566823105E-2</v>
       </c>
       <c r="G40">
         <v>229217</v>
@@ -3025,25 +3048,25 @@
         <v>133204</v>
       </c>
       <c r="I40">
-        <v>58.11261817404468</v>
+        <v>58.112618174044677</v>
       </c>
       <c r="J40">
-        <v>97.76870908076685</v>
+        <v>97.768709080766854</v>
       </c>
       <c r="K40">
-        <v>0.5374636632834114</v>
+        <v>0.53746366328341144</v>
       </c>
       <c r="L40">
-        <v>0.07410062296988479</v>
+        <v>7.4100622969884788E-2</v>
       </c>
       <c r="M40">
-        <v>7.7378610635856E-20</v>
+        <v>7.7378610635855996E-20</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
       <c r="O40">
-        <v>0.07492732656682288</v>
+        <v>7.4927326566822883E-2</v>
       </c>
       <c r="P40">
         <v>7280</v>
@@ -3052,36 +3075,36 @@
         <v>3040</v>
       </c>
       <c r="R40">
-        <v>41.75824175824176</v>
+        <v>41.758241758241759</v>
       </c>
       <c r="S40">
-        <v>2.231290919233141</v>
+        <v>2.2312909192331412</v>
       </c>
       <c r="T40">
         <v>136244</v>
       </c>
       <c r="U40">
-        <v>57.60918743155305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>57.609187431553053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.5817718820790146</v>
+        <v>0.58177188207901465</v>
       </c>
       <c r="C41">
-        <v>0.1635437641580292</v>
+        <v>0.16354376415802921</v>
       </c>
       <c r="D41">
-        <v>2.221701991709389E-165</v>
+        <v>2.2217019917093889E-165</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0.1635437641580293</v>
+        <v>0.16354376415802929</v>
       </c>
       <c r="G41">
         <v>229217</v>
@@ -3096,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0.5817718820790146</v>
+        <v>0.58177188207901465</v>
       </c>
       <c r="L41">
-        <v>0.1635437641580293</v>
+        <v>0.16354376415802929</v>
       </c>
       <c r="M41">
-        <v>2.221701991708813E-165</v>
+        <v>2.2217019917088129E-165</v>
       </c>
       <c r="N41">
         <v>1</v>
       </c>
       <c r="O41">
-        <v>0.1635437641580293</v>
+        <v>0.16354376415802929</v>
       </c>
       <c r="P41">
         <v>7280</v>
@@ -3129,24 +3152,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.585554131379512</v>
+        <v>0.58555413137951196</v>
       </c>
       <c r="C42">
-        <v>0.1506885540631948</v>
+        <v>0.15068855406319481</v>
       </c>
       <c r="D42">
-        <v>2.424199070623749E-140</v>
+        <v>2.4241990706237489E-140</v>
       </c>
       <c r="E42">
         <v>-1</v>
       </c>
       <c r="F42">
-        <v>0.1711082627590239</v>
+        <v>0.17110826275902391</v>
       </c>
       <c r="G42">
         <v>229217</v>
@@ -3161,19 +3184,19 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0.585554131379512</v>
+        <v>0.58555413137951196</v>
       </c>
       <c r="L42">
-        <v>0.1506885540631948</v>
+        <v>0.15068855406319481</v>
       </c>
       <c r="M42">
-        <v>2.424199070623749E-140</v>
+        <v>2.4241990706237489E-140</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
       <c r="O42">
-        <v>0.1711082627590239</v>
+        <v>0.17110826275902391</v>
       </c>
       <c r="P42">
         <v>7280</v>
@@ -3194,24 +3217,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.5902091680051539</v>
+        <v>0.59020916800515388</v>
       </c>
       <c r="C43">
-        <v>0.1635437641580292</v>
+        <v>0.16354376415802921</v>
       </c>
       <c r="D43">
-        <v>2.221701991709389E-165</v>
+        <v>2.2217019917093889E-165</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>0.1804183360103078</v>
+        <v>0.18041833601030779</v>
       </c>
       <c r="G43">
         <v>229217</v>
@@ -3220,25 +3243,25 @@
         <v>133204</v>
       </c>
       <c r="I43">
-        <v>58.11261817404468</v>
+        <v>58.112618174044677</v>
       </c>
       <c r="J43">
-        <v>97.76870908076685</v>
+        <v>97.768709080766854</v>
       </c>
       <c r="K43">
-        <v>0.590209168005154</v>
+        <v>0.59020916800515399</v>
       </c>
       <c r="L43">
-        <v>0.1635437641580293</v>
+        <v>0.16354376415802929</v>
       </c>
       <c r="M43">
-        <v>2.221701991708813E-165</v>
+        <v>2.2217019917088129E-165</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
       <c r="O43">
-        <v>0.180418336010308</v>
+        <v>0.18041833601030799</v>
       </c>
       <c r="P43">
         <v>7280</v>
@@ -3247,27 +3270,27 @@
         <v>3040</v>
       </c>
       <c r="R43">
-        <v>41.75824175824176</v>
+        <v>41.758241758241759</v>
       </c>
       <c r="S43">
-        <v>2.231290919233141</v>
+        <v>2.2312909192331412</v>
       </c>
       <c r="T43">
         <v>136244</v>
       </c>
       <c r="U43">
-        <v>57.60918743155305</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>57.609187431553053</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0.6345919788647936</v>
+        <v>0.63459197886479357</v>
       </c>
       <c r="C44">
-        <v>0.2825809965896173</v>
+        <v>0.28258099658961727</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3276,7 +3299,7 @@
         <v>-1</v>
       </c>
       <c r="F44">
-        <v>0.2691839577295871</v>
+        <v>0.26918395772958709</v>
       </c>
       <c r="G44">
         <v>229217</v>
@@ -3285,16 +3308,16 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0.0004362678160869395</v>
+        <v>4.3626781608693951E-4</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>0.6345919788647935</v>
+        <v>0.63459197886479346</v>
       </c>
       <c r="L44">
-        <v>0.2825809965896173</v>
+        <v>0.28258099658961727</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3303,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <v>0.2691839577295869</v>
+        <v>0.26918395772958692</v>
       </c>
       <c r="P44">
         <v>7280</v>
@@ -3321,18 +3344,18 @@
         <v>1</v>
       </c>
       <c r="U44">
-        <v>0.0004228383446724483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>4.2283834467244828E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0.5000021813390805</v>
+        <v>0.50000218133908048</v>
       </c>
       <c r="C45">
-        <v>4.362678160869395E-06</v>
+        <v>4.3626781608693948E-6</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3341,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>4.362678160951816E-06</v>
+        <v>4.3626781609518162E-6</v>
       </c>
       <c r="G45">
         <v>229217</v>
@@ -3356,10 +3379,10 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0.5000021813390805</v>
+        <v>0.50000218133908048</v>
       </c>
       <c r="L45">
-        <v>4.362678160840794E-06</v>
+        <v>4.3626781608407939E-6</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -3368,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>4.362678160951816E-06</v>
+        <v>4.3626781609518162E-6</v>
       </c>
       <c r="P45">
         <v>7280</v>
@@ -3389,15 +3412,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.6345935730223873</v>
+        <v>0.63459357302238728</v>
       </c>
       <c r="C46">
-        <v>0.2825829902438531</v>
+        <v>0.28258299024385308</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3406,7 +3429,7 @@
         <v>-1</v>
       </c>
       <c r="F46">
-        <v>0.2691871460447746</v>
+        <v>0.26918714604477462</v>
       </c>
       <c r="G46">
         <v>229217</v>
@@ -3421,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0.6345935730223873</v>
+        <v>0.63459357302238728</v>
       </c>
       <c r="L46">
-        <v>0.2825829902438531</v>
+        <v>0.28258299024385308</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3433,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="O46">
-        <v>0.2691871460447746</v>
+        <v>0.26918714604477462</v>
       </c>
       <c r="P46">
         <v>7280</v>
@@ -3454,12 +3477,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.6412561022960775</v>
+        <v>0.64125610229607755</v>
       </c>
       <c r="C47">
         <v>0.2825110677789035</v>
@@ -3471,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0.2825122045921551</v>
+        <v>0.28251220459215509</v>
       </c>
       <c r="G47">
         <v>229217</v>
@@ -3480,16 +3503,16 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0.0004362678160869395</v>
+        <v>4.3626781608693951E-4</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47">
-        <v>0.6412561022960775</v>
+        <v>0.64125610229607755</v>
       </c>
       <c r="L47">
-        <v>0.2825110677789036</v>
+        <v>0.28251106777890361</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3498,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="O47">
-        <v>0.2825122045921551</v>
+        <v>0.28251220459215509</v>
       </c>
       <c r="P47">
         <v>7280</v>
@@ -3516,18 +3539,18 @@
         <v>1</v>
       </c>
       <c r="U47">
-        <v>0.0004228383446724483</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>4.2283834467244828E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0.6508469162852482</v>
+        <v>0.65084691628524816</v>
       </c>
       <c r="C48">
-        <v>0.2753452385114225</v>
+        <v>0.27534523851142251</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3536,7 +3559,7 @@
         <v>-1</v>
       </c>
       <c r="F48">
-        <v>0.3016938325704963</v>
+        <v>0.30169383257049631</v>
       </c>
       <c r="G48">
         <v>229217</v>
@@ -3545,16 +3568,16 @@
         <v>19816</v>
       </c>
       <c r="I48">
-        <v>8.645083043578792</v>
+        <v>8.6450830435787918</v>
       </c>
       <c r="J48">
-        <v>98.42547062037451</v>
+        <v>98.425470620374512</v>
       </c>
       <c r="K48">
-        <v>0.6508469162852482</v>
+        <v>0.65084691628524816</v>
       </c>
       <c r="L48">
-        <v>0.2753452385114225</v>
+        <v>0.27534523851142251</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3563,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <v>0.3016938325704963</v>
+        <v>0.30169383257049631</v>
       </c>
       <c r="P48">
         <v>7280</v>
@@ -3581,27 +3604,27 @@
         <v>20133</v>
       </c>
       <c r="U48">
-        <v>8.513004393290402</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>8.5130043932904016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0.5214534371959159</v>
+        <v>0.52145343719591586</v>
       </c>
       <c r="C49">
-        <v>0.04290687439183188</v>
+        <v>4.2906874391831877E-2</v>
       </c>
       <c r="D49">
-        <v>1.002956210166769E-11</v>
+        <v>1.0029562101667691E-11</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0.04290687439183172</v>
+        <v>4.2906874391831717E-2</v>
       </c>
       <c r="G49">
         <v>229217</v>
@@ -3616,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0.521453437195916</v>
+        <v>0.52145343719591597</v>
       </c>
       <c r="L49">
-        <v>0.04290687439183194</v>
+        <v>4.290687439183194E-2</v>
       </c>
       <c r="M49">
         <v>1.002956210166701E-11</v>
@@ -3628,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <v>0.04290687439183194</v>
+        <v>4.290687439183194E-2</v>
       </c>
       <c r="P49">
         <v>7280</v>
@@ -3649,15 +3672,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0.6532589856068536</v>
+        <v>0.65325898560685358</v>
       </c>
       <c r="C50">
-        <v>0.2863512565016489</v>
+        <v>0.28635125650164889</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3666,7 +3689,7 @@
         <v>-1</v>
       </c>
       <c r="F50">
-        <v>0.3065179712137072</v>
+        <v>0.30651797121370722</v>
       </c>
       <c r="G50">
         <v>229217</v>
@@ -3681,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0.6532589856068536</v>
+        <v>0.65325898560685358</v>
       </c>
       <c r="L50">
-        <v>0.2863512565016489</v>
+        <v>0.28635125650164889</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3693,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <v>0.3065179712137072</v>
+        <v>0.30651797121370722</v>
       </c>
       <c r="P50">
         <v>7280</v>
@@ -3714,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,7 +3745,7 @@
         <v>0.6311742925521846</v>
       </c>
       <c r="C51">
-        <v>0.262072866241678</v>
+        <v>0.26207286624167803</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3740,16 +3763,16 @@
         <v>19816</v>
       </c>
       <c r="I51">
-        <v>8.645083043578792</v>
+        <v>8.6450830435787918</v>
       </c>
       <c r="J51">
-        <v>98.42547062037451</v>
+        <v>98.425470620374512</v>
       </c>
       <c r="K51">
-        <v>0.6311742925521844</v>
+        <v>0.63117429255218438</v>
       </c>
       <c r="L51">
-        <v>0.2620728662416779</v>
+        <v>0.26207286624167792</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -3758,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>0.2623485851043688</v>
+        <v>0.26234858510436881</v>
       </c>
       <c r="P51">
         <v>7280</v>
@@ -3776,27 +3799,27 @@
         <v>20133</v>
       </c>
       <c r="U51">
-        <v>8.513004393290402</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>8.5130043932904016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0.5435310281911763</v>
+        <v>0.54353102819117627</v>
       </c>
       <c r="C52">
-        <v>0.07810696606857925</v>
+        <v>7.8106966068579253E-2</v>
       </c>
       <c r="D52">
-        <v>5.229303241290226E-19</v>
+        <v>5.2293032412902256E-19</v>
       </c>
       <c r="E52">
         <v>-1</v>
       </c>
       <c r="F52">
-        <v>0.08706205638235254</v>
+        <v>8.7062056382352537E-2</v>
       </c>
       <c r="G52">
         <v>229217</v>
@@ -3805,25 +3828,25 @@
         <v>149594</v>
       </c>
       <c r="I52">
-        <v>65.26304767970962</v>
+        <v>65.263047679709615</v>
       </c>
       <c r="J52">
-        <v>97.63665437457168</v>
+        <v>97.636654374571677</v>
       </c>
       <c r="K52">
-        <v>0.5435310281911764</v>
+        <v>0.54353102819117638</v>
       </c>
       <c r="L52">
-        <v>0.07810696606857925</v>
+        <v>7.8106966068579253E-2</v>
       </c>
       <c r="M52">
-        <v>5.229303241290226E-19</v>
+        <v>5.2293032412902256E-19</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
       <c r="O52">
-        <v>0.08706205638235276</v>
+        <v>8.7062056382352759E-2</v>
       </c>
       <c r="P52">
         <v>7280</v>
@@ -3832,27 +3855,27 @@
         <v>3621</v>
       </c>
       <c r="R52">
-        <v>49.73901098901099</v>
+        <v>49.739010989010993</v>
       </c>
       <c r="S52">
-        <v>2.36334562542832</v>
+        <v>2.3633456254283201</v>
       </c>
       <c r="T52">
         <v>153215</v>
       </c>
       <c r="U52">
-        <v>64.78517697898916</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>64.785176978989156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B53">
-        <v>0.5776201834534931</v>
+        <v>0.57762018345349309</v>
       </c>
       <c r="C53">
-        <v>0.1552403669069863</v>
+        <v>0.15524036690698631</v>
       </c>
       <c r="D53">
         <v>5.734977181913503E-149</v>
@@ -3879,7 +3902,7 @@
         <v>0.5776201834534932</v>
       </c>
       <c r="L53">
-        <v>0.1552403669069863</v>
+        <v>0.15524036690698631</v>
       </c>
       <c r="M53">
         <v>5.734977181913503E-149</v>
@@ -3888,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <v>0.1552403669069864</v>
+        <v>0.15524036690698639</v>
       </c>
       <c r="P53">
         <v>7280</v>
@@ -3909,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -3917,10 +3940,10 @@
         <v>0.5876743923664256</v>
       </c>
       <c r="C54">
-        <v>0.1734204060771244</v>
+        <v>0.17342040607712439</v>
       </c>
       <c r="D54">
-        <v>4.829021344979364E-186</v>
+        <v>4.8290213449793642E-186</v>
       </c>
       <c r="E54">
         <v>-1</v>
@@ -3941,19 +3964,19 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0.5876743923664255</v>
+        <v>0.58767439236642549</v>
       </c>
       <c r="L54">
-        <v>0.1734204060771244</v>
+        <v>0.17342040607712439</v>
       </c>
       <c r="M54">
-        <v>4.829021344979364E-186</v>
+        <v>4.8290213449793642E-186</v>
       </c>
       <c r="N54">
         <v>1</v>
       </c>
       <c r="O54">
-        <v>0.175348784732851</v>
+        <v>0.17534878473285101</v>
       </c>
       <c r="P54">
         <v>7280</v>
@@ -3974,24 +3997,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B55">
-        <v>0.5844147262896472</v>
+        <v>0.58441472628964719</v>
       </c>
       <c r="C55">
-        <v>0.1660702995486737</v>
+        <v>0.16607029954867369</v>
       </c>
       <c r="D55">
-        <v>1.510737644758135E-170</v>
+        <v>1.5107376447581349E-170</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>0.1688294525792944</v>
+        <v>0.16882945257929441</v>
       </c>
       <c r="G55">
         <v>229217</v>
@@ -4000,25 +4023,25 @@
         <v>149594</v>
       </c>
       <c r="I55">
-        <v>65.26304767970962</v>
+        <v>65.263047679709615</v>
       </c>
       <c r="J55">
-        <v>97.63665437457168</v>
+        <v>97.636654374571677</v>
       </c>
       <c r="K55">
-        <v>0.5844147262896472</v>
+        <v>0.58441472628964719</v>
       </c>
       <c r="L55">
-        <v>0.1660702995486737</v>
+        <v>0.16607029954867369</v>
       </c>
       <c r="M55">
-        <v>1.510737644757737E-170</v>
+        <v>1.5107376447577371E-170</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
       <c r="O55">
-        <v>0.1688294525792944</v>
+        <v>0.16882945257929441</v>
       </c>
       <c r="P55">
         <v>7280</v>
@@ -4027,16 +4050,16 @@
         <v>3621</v>
       </c>
       <c r="R55">
-        <v>49.73901098901099</v>
+        <v>49.739010989010993</v>
       </c>
       <c r="S55">
-        <v>2.36334562542832</v>
+        <v>2.3633456254283201</v>
       </c>
       <c r="T55">
         <v>153215</v>
       </c>
       <c r="U55">
-        <v>64.78517697898916</v>
+        <v>64.785176978989156</v>
       </c>
     </row>
   </sheetData>
